--- a/Base/Teams/Bills/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Bills/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="C2">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="D2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -506,10 +506,10 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D2">
         <v>25</v>

--- a/Base/Teams/Bills/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Bills/2021 Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="C3">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>6</v>

--- a/Base/Teams/Bills/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Bills/2021 Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="C2">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="C2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>3</v>

--- a/Base/Teams/Bills/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Bills/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="C3">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="D3">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3">
         <v>7</v>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="C3">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3">
         <v>6</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Bills/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Bills/2021 Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="C2">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E2">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="C2">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>3</v>

--- a/Base/Teams/Bills/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Bills/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>241</v>
+        <v>298</v>
       </c>
       <c r="C2">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="D2">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="C2">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="D2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Bills/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Bills/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="C3">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="D3">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E3">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F3">
         <v>7</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="C3">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="D3">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F3">
         <v>6</v>
